--- a/fsi-2023.xlsx
+++ b/fsi-2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18435" windowHeight="10980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="16410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -1094,6 +1091,9 @@
   </si>
   <si>
     <t>95th</t>
+  </si>
+  <si>
+    <t>Countries</t>
   </si>
 </sst>
 </file>
@@ -1470,71 +1470,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="225.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="230.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="D2" s="6">
         <v>111.89999999999999</v>
@@ -1578,13 +1576,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="B3" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>349</v>
       </c>
       <c r="D3" s="6">
         <v>108.89999999999999</v>
@@ -1628,13 +1626,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="D4" s="6">
         <v>108.50000000000001</v>
@@ -1678,13 +1676,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="D5" s="6">
         <v>107.19999999999997</v>
@@ -1728,13 +1726,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="D6" s="6">
         <v>107.10000000000001</v>
@@ -1778,13 +1776,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="B7" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="D7" s="6">
         <v>106.60000000000001</v>
@@ -1828,13 +1826,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="B8" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="D8" s="6">
         <v>106.19999999999999</v>
@@ -1878,13 +1876,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>332</v>
-      </c>
-      <c r="B9" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>333</v>
       </c>
       <c r="D9" s="6">
         <v>105.70000000000002</v>
@@ -1928,13 +1926,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="B10" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="D10" s="6">
         <v>104.60000000000001</v>
@@ -1978,13 +1976,13 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="D11" s="6">
         <v>102.89999999999999</v>
@@ -2028,13 +2026,13 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="D12" s="6">
         <v>100.39999999999999</v>
@@ -2078,13 +2076,13 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="D13" s="6">
         <v>100.19999999999997</v>
@@ -2128,13 +2126,13 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="B14" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="D14" s="6">
         <v>99.5</v>
@@ -2178,13 +2176,13 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="D15" s="6">
         <v>98.500000000000014</v>
@@ -2228,13 +2226,13 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="B16" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="D16" s="6">
         <v>97.999999999999986</v>
@@ -2278,13 +2276,13 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="B17" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="D17" s="6">
         <v>96.9</v>
@@ -2328,13 +2326,13 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="D18" s="6">
         <v>96.1</v>
@@ -2378,13 +2376,13 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B19" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="D19" s="6">
         <v>95.899999999999991</v>
@@ -2428,13 +2426,13 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="B20" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>263</v>
       </c>
       <c r="D20" s="6">
         <v>94.499999999999986</v>
@@ -2478,13 +2476,13 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="B21" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="D21" s="6">
         <v>94.199999999999989</v>
@@ -2528,13 +2526,13 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B22" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="D22" s="6">
         <v>94.000000000000014</v>
@@ -2578,13 +2576,13 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="B23" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="D23" s="6">
         <v>94</v>
@@ -2628,13 +2626,13 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="B24" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="D24" s="6">
         <v>93.999999999999986</v>
@@ -2678,13 +2676,13 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>294</v>
-      </c>
-      <c r="B25" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>295</v>
       </c>
       <c r="D25" s="6">
         <v>93.399999999999991</v>
@@ -2728,13 +2726,13 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="B26" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="D26" s="6">
         <v>91.799999999999983</v>
@@ -2778,13 +2776,13 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="B27" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="D27" s="6">
         <v>91.5</v>
@@ -2828,13 +2826,13 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="B28" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>337</v>
       </c>
       <c r="D28" s="6">
         <v>91.399999999999991</v>
@@ -2878,13 +2876,13 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="B29" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="D29" s="6">
         <v>90.7</v>
@@ -2928,13 +2926,13 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B30" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="B30" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="D30" s="6">
         <v>90.5</v>
@@ -2978,13 +2976,13 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B31" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="D31" s="6">
         <v>90.300000000000011</v>
@@ -3028,13 +3026,13 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B32" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="B32" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="D32" s="6">
         <v>89.90000000000002</v>
@@ -3078,13 +3076,13 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="B33" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="D33" s="6">
         <v>89.899999999999991</v>
@@ -3128,13 +3126,13 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="B34" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="D34" s="6">
         <v>88.899999999999991</v>
@@ -3178,13 +3176,13 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B35" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D35" s="6">
         <v>87.9</v>
@@ -3228,13 +3226,13 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="B36" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="D36" s="6">
         <v>87.8</v>
@@ -3278,13 +3276,13 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B37" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="B37" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>335</v>
       </c>
       <c r="D37" s="6">
         <v>87.100000000000009</v>
@@ -3328,13 +3326,13 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B38" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="B38" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="D38" s="6">
         <v>87</v>
@@ -3378,13 +3376,13 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="B39" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>319</v>
       </c>
       <c r="D39" s="6">
         <v>87</v>
@@ -3428,13 +3426,13 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="B40" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="D40" s="6">
         <v>86.9</v>
@@ -3478,13 +3476,13 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B41" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="D41" s="6">
         <v>85.399999999999991</v>
@@ -3528,13 +3526,13 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="B42" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="D42" s="6">
         <v>85.199999999999989</v>
@@ -3578,13 +3576,13 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="B43" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="D43" s="6">
         <v>84.4</v>
@@ -3628,13 +3626,13 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="B44" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="D44" s="6">
         <v>83.2</v>
@@ -3678,13 +3676,13 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B45" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="B45" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>255</v>
       </c>
       <c r="D45" s="6">
         <v>82.300000000000011</v>
@@ -3728,13 +3726,13 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="B46" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="D46" s="6">
         <v>82.2</v>
@@ -3778,13 +3776,13 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="B47" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="D47" s="6">
         <v>82.199999999999989</v>
@@ -3828,13 +3826,13 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="B48" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>271</v>
       </c>
       <c r="D48" s="6">
         <v>82.1</v>
@@ -3878,13 +3876,13 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B49" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="B49" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>301</v>
       </c>
       <c r="D49" s="6">
         <v>81.8</v>
@@ -3928,13 +3926,13 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B50" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="D50" s="6">
         <v>81.7</v>
@@ -3978,13 +3976,13 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B51" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="B51" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="D51" s="6">
         <v>81.599999999999994</v>
@@ -4028,13 +4026,13 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B52" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="B52" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="D52" s="6">
         <v>81.399999999999991</v>
@@ -4078,13 +4076,13 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="B53" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="D53" s="6">
         <v>81.199999999999989</v>
@@ -4128,13 +4126,13 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="B54" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="D54" s="6">
         <v>77.3</v>
@@ -4178,13 +4176,13 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B55" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="B55" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="D55" s="6">
         <v>76.599999999999994</v>
@@ -4228,13 +4226,13 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="B56" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="D56" s="6">
         <v>76.3</v>
@@ -4278,13 +4276,13 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B57" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="B57" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="D57" s="6">
         <v>76.100000000000009</v>
@@ -4328,13 +4326,13 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B58" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="B58" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="D58" s="6">
         <v>75.7</v>
@@ -4378,13 +4376,13 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B59" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>278</v>
-      </c>
-      <c r="B59" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>279</v>
       </c>
       <c r="D59" s="6">
         <v>75.600000000000009</v>
@@ -4428,13 +4426,13 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="B60" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="D60" s="6">
         <v>74.699999999999989</v>
@@ -4478,13 +4476,13 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="B61" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="D61" s="6">
         <v>74.5</v>
@@ -4528,13 +4526,13 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="B62" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="D62" s="6">
         <v>74.2</v>
@@ -4578,13 +4576,13 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B63" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="B63" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="D63" s="6">
         <v>74.100000000000009</v>
@@ -4628,13 +4626,13 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B64" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="D64" s="6">
         <v>73.300000000000011</v>
@@ -4678,13 +4676,13 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B65" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="D65" s="6">
         <v>73.100000000000009</v>
@@ -4728,13 +4726,13 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="B66" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="D66" s="6">
         <v>72.699999999999989</v>
@@ -4778,13 +4776,13 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B67" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="B67" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="D67" s="6">
         <v>72.3</v>
@@ -4828,13 +4826,13 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="B68" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="D68" s="6">
         <v>72</v>
@@ -4878,13 +4876,13 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="B69" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="D69" s="6">
         <v>71.899999999999991</v>
@@ -4928,13 +4926,13 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B70" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="B70" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="D70" s="6">
         <v>71.500000000000014</v>
@@ -4978,13 +4976,13 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B71" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="B71" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>341</v>
       </c>
       <c r="D71" s="6">
         <v>70.7</v>
@@ -5028,13 +5026,13 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="B72" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="D72" s="6">
         <v>70.199999999999989</v>
@@ -5078,13 +5076,13 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B73" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="B73" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="D73" s="6">
         <v>69.999999999999986</v>
@@ -5128,13 +5126,13 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="B74" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="D74" s="6">
         <v>69.900000000000006</v>
@@ -5178,13 +5176,13 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="B75" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="D75" s="6">
         <v>69.8</v>
@@ -5228,13 +5226,13 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B76" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="B76" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="D76" s="6">
         <v>69.7</v>
@@ -5278,13 +5276,13 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="B77" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="D77" s="6">
         <v>69.399999999999991</v>
@@ -5328,13 +5326,13 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B78" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="B78" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="D78" s="6">
         <v>69.300000000000011</v>
@@ -5378,13 +5376,13 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B79" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="B79" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>277</v>
       </c>
       <c r="D79" s="6">
         <v>69.3</v>
@@ -5428,13 +5426,13 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B80" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="B80" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>307</v>
       </c>
       <c r="D80" s="6">
         <v>68.199999999999989</v>
@@ -5478,13 +5476,13 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B81" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="B81" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="D81" s="6">
         <v>68</v>
@@ -5528,13 +5526,13 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="B82" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="D82" s="6">
         <v>67.900000000000006</v>
@@ -5578,13 +5576,13 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="B83" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="D83" s="6">
         <v>67.5</v>
@@ -5628,13 +5626,13 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B84" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="D84" s="6">
         <v>67.399999999999991</v>
@@ -5678,13 +5676,13 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B85" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>350</v>
-      </c>
-      <c r="B85" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>351</v>
       </c>
       <c r="D85" s="6">
         <v>66.800000000000011</v>
@@ -5728,13 +5726,13 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B86" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="B86" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="D86" s="6">
         <v>66.400000000000006</v>
@@ -5778,13 +5776,13 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B87" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="B87" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="D87" s="6">
         <v>66.399999999999991</v>
@@ -5828,13 +5826,13 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B88" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="B88" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="D88" s="6">
         <v>65.600000000000009</v>
@@ -5878,13 +5876,13 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B89" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="B89" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="D89" s="6">
         <v>65.500000000000014</v>
@@ -5928,13 +5926,13 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B90" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="B90" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>321</v>
       </c>
       <c r="D90" s="6">
         <v>65.3</v>
@@ -5978,13 +5976,13 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="B91" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="D91" s="6">
         <v>65.099999999999994</v>
@@ -6028,13 +6026,13 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B92" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="B92" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="D92" s="6">
         <v>65.099999999999994</v>
@@ -6078,13 +6076,13 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B93" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="B93" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="D93" s="6">
         <v>65.099999999999994</v>
@@ -6128,13 +6126,13 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B94" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="B94" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="D94" s="6">
         <v>64.5</v>
@@ -6178,13 +6176,13 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B95" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="B95" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="D95" s="6">
         <v>63.7</v>
@@ -6228,13 +6226,13 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B96" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="B96" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="D96" s="6">
         <v>62.9</v>
@@ -6278,13 +6276,13 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B97" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="B97" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="D97" s="6">
         <v>62.29999999999999</v>
@@ -6328,13 +6326,13 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B98" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="B98" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="D98" s="6">
         <v>61.900000000000013</v>
@@ -6378,13 +6376,13 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B99" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="B99" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>347</v>
       </c>
       <c r="D99" s="6">
         <v>61.599999999999994</v>
@@ -6428,13 +6426,13 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B100" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="B100" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>303</v>
       </c>
       <c r="D100" s="6">
         <v>60.800000000000004</v>
@@ -6478,13 +6476,13 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B101" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B101" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="D101" s="6">
         <v>60.6</v>
@@ -6528,13 +6526,13 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B102" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="B102" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>343</v>
       </c>
       <c r="D102" s="6">
         <v>60.300000000000004</v>
@@ -6578,13 +6576,13 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B103" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="B103" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>331</v>
       </c>
       <c r="D103" s="6">
         <v>60.3</v>
@@ -6628,13 +6626,13 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B104" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="B104" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>247</v>
       </c>
       <c r="D104" s="6">
         <v>60.1</v>
@@ -6678,13 +6676,13 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B105" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="B105" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>329</v>
       </c>
       <c r="D105" s="6">
         <v>59.8</v>
@@ -6728,13 +6726,13 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B106" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="B106" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="D106" s="6">
         <v>59.699999999999996</v>
@@ -6778,13 +6776,13 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C107" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="B107" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="D107" s="6">
         <v>59.499999999999993</v>
@@ -6828,13 +6826,13 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B108" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>344</v>
-      </c>
-      <c r="B108" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="D108" s="6">
         <v>58.300000000000004</v>
@@ -6878,13 +6876,13 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="B109" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="D109" s="6">
         <v>57.999999999999993</v>
@@ -6928,13 +6926,13 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="B110" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="D110" s="6">
         <v>57</v>
@@ -6978,13 +6976,13 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="B111" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="D111" s="6">
         <v>56.8</v>
@@ -7028,13 +7026,13 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B112" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="B112" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="D112" s="6">
         <v>55.29999999999999</v>
@@ -7078,13 +7076,13 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B113" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="B113" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="D113" s="6">
         <v>55.099999999999994</v>
@@ -7128,13 +7126,13 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B114" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="B114" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>269</v>
       </c>
       <c r="D114" s="6">
         <v>55</v>
@@ -7178,13 +7176,13 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B115" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="B115" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="D115" s="6">
         <v>54.699999999999996</v>
@@ -7228,13 +7226,13 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B116" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="B116" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="D116" s="6">
         <v>53.8</v>
@@ -7278,13 +7276,13 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B117" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="B117" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="D117" s="6">
         <v>53.699999999999996</v>
@@ -7328,13 +7326,13 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B118" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="B118" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="D118" s="6">
         <v>53.3</v>
@@ -7378,13 +7376,13 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B119" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C119" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B119" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D119" s="6">
         <v>53</v>
@@ -7428,13 +7426,13 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B120" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="B120" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="D120" s="6">
         <v>52.899999999999991</v>
@@ -7478,13 +7476,13 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B121" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B121" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="D121" s="6">
         <v>51.800000000000004</v>
@@ -7528,13 +7526,13 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B122" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C122" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="B122" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="D122" s="6">
         <v>51.3</v>
@@ -7578,13 +7576,13 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B123" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C123" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="B123" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="D123" s="6">
         <v>51.2</v>
@@ -7628,13 +7626,13 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B124" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="B124" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>273</v>
       </c>
       <c r="D124" s="6">
         <v>49.2</v>
@@ -7678,13 +7676,13 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B125" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C125" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="B125" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>313</v>
       </c>
       <c r="D125" s="6">
         <v>48.8</v>
@@ -7728,13 +7726,13 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B126" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B126" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="D126" s="6">
         <v>48.7</v>
@@ -7778,13 +7776,13 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B127" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="B127" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="D127" s="6">
         <v>48.7</v>
@@ -7828,13 +7826,13 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B128" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="B128" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="D128" s="6">
         <v>48.699999999999996</v>
@@ -7878,13 +7876,13 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B129" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C129" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="B129" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="D129" s="6">
         <v>46.4</v>
@@ -7928,13 +7926,13 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B130" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="B130" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="D130" s="6">
         <v>45.400000000000006</v>
@@ -7978,13 +7976,13 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B131" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C131" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="B131" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="D131" s="6">
         <v>45.300000000000004</v>
@@ -8028,13 +8026,13 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B132" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C132" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="B132" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D132" s="6">
         <v>45.199999999999996</v>
@@ -8078,13 +8076,13 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B133" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C133" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="B133" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="D133" s="6">
         <v>44.1</v>
@@ -8128,13 +8126,13 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B134" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="B134" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="D134" s="6">
         <v>43.499999999999993</v>
@@ -8178,13 +8176,13 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B135" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C135" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="B135" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="D135" s="6">
         <v>43.3</v>
@@ -8228,13 +8226,13 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B136" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="B136" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="D136" s="6">
         <v>42.6</v>
@@ -8278,13 +8276,13 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B137" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C137" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="B137" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="D137" s="6">
         <v>42.2</v>
@@ -8328,13 +8326,13 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B138" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="B138" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="D138" s="6">
         <v>41.9</v>
@@ -8378,13 +8376,13 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B139" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="B139" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>309</v>
       </c>
       <c r="D139" s="6">
         <v>40.5</v>
@@ -8428,13 +8426,13 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B140" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="B140" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="D140" s="6">
         <v>40.4</v>
@@ -8478,13 +8476,13 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B141" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="B141" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="D141" s="6">
         <v>40.199999999999996</v>
@@ -8528,13 +8526,13 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B142" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C142" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="B142" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="D142" s="6">
         <v>39.399999999999991</v>
@@ -8578,13 +8576,13 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B143" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C143" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B143" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="D143" s="6">
         <v>38.6</v>
@@ -8628,13 +8626,13 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B144" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C144" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="B144" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="D144" s="6">
         <v>38</v>
@@ -8678,13 +8676,13 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B145" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C145" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="B145" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="D145" s="6">
         <v>37.800000000000004</v>
@@ -8728,13 +8726,13 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B146" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="B146" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="D146" s="6">
         <v>37</v>
@@ -8778,13 +8776,13 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B147" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C147" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="B147" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="D147" s="6">
         <v>34.4</v>
@@ -8828,13 +8826,13 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B148" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="B148" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>285</v>
       </c>
       <c r="D148" s="6">
         <v>33</v>
@@ -8878,13 +8876,13 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B149" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="B149" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="D149" s="6">
         <v>31.5</v>
@@ -8928,13 +8926,13 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C150" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="B150" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="D150" s="6">
         <v>31.4</v>
@@ -8978,13 +8976,13 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B151" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C151" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="B151" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="D151" s="6">
         <v>30.500000000000004</v>
@@ -9028,13 +9026,13 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B152" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="B152" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>317</v>
       </c>
       <c r="D152" s="6">
         <v>28.799999999999997</v>
@@ -9078,13 +9076,13 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B153" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C153" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="B153" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="D153" s="6">
         <v>27.299999999999997</v>
@@ -9128,13 +9126,13 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B154" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C154" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="B154" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>297</v>
       </c>
       <c r="D154" s="6">
         <v>25.7</v>
@@ -9178,13 +9176,13 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B155" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C155" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="B155" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="D155" s="6">
         <v>25.499999999999996</v>
@@ -9228,13 +9226,13 @@
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B156" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="B156" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="D156" s="6">
         <v>24.6</v>
@@ -9278,13 +9276,13 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B157" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C157" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="B157" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="D157" s="6">
         <v>24.399999999999995</v>
@@ -9328,13 +9326,13 @@
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B158" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C158" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="B158" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="D158" s="6">
         <v>22</v>
@@ -9378,13 +9376,13 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B159" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C159" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="B159" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="D159" s="6">
         <v>20.999999999999996</v>
@@ -9428,13 +9426,13 @@
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B160" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C160" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="B160" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="D160" s="6">
         <v>20.6</v>
@@ -9478,13 +9476,13 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B161" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C161" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="B161" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="D161" s="6">
         <v>19.5</v>
@@ -9528,13 +9526,13 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B162" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C162" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="B162" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="D162" s="6">
         <v>19.5</v>
@@ -9578,13 +9576,13 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B163" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C163" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="B163" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="D163" s="6">
         <v>18.899999999999999</v>
@@ -9628,13 +9626,13 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B164" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C164" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B164" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D164" s="6">
         <v>17.900000000000002</v>
@@ -9678,13 +9676,13 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B165" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="B165" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="D165" s="6">
         <v>17.799999999999997</v>
@@ -9728,13 +9726,13 @@
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B166" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C166" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="B166" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="D166" s="6">
         <v>16.7</v>
@@ -9778,13 +9776,13 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B167" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C167" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="B167" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="D167" s="6">
         <v>16</v>
@@ -9828,13 +9826,13 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B168" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>266</v>
-      </c>
-      <c r="B168" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>267</v>
       </c>
       <c r="D168" s="6">
         <v>15.700000000000001</v>
@@ -9878,13 +9876,13 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B169" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C169" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="B169" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="D169" s="6">
         <v>14.5</v>
